--- a/biology/Botanique/Gigot_d'agneau_à_la_poêle/Gigot_d'agneau_à_la_poêle.xlsx
+++ b/biology/Botanique/Gigot_d'agneau_à_la_poêle/Gigot_d'agneau_à_la_poêle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gigot_d%27agneau_%C3%A0_la_po%C3%AAle</t>
+          <t>Gigot_d'agneau_à_la_poêle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le gigot d'agneau à la poêle (perna de carneiro no tacho en portugais) est un plat portugais typique de l'Algarve. Même si la gastronomie de l'Algarve est à base de poisson et de fruits de mer, elle possède quand même beaucoup de mets avec de la viande, et certains même avec de la viande et des fruits de mer.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gigot_d%27agneau_%C3%A0_la_po%C3%AAle</t>
+          <t>Gigot_d'agneau_à_la_poêle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Ingrédients</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La préparation de ce mets nécessite gigot d'agneau, huile d'olive, ail, vinaigre, vin blanc sec, pommes de terre, clous de girofle, bouquet garni et paprika[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La préparation de ce mets nécessite gigot d'agneau, huile d'olive, ail, vinaigre, vin blanc sec, pommes de terre, clous de girofle, bouquet garni et paprika.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gigot_d%27agneau_%C3%A0_la_po%C3%AAle</t>
+          <t>Gigot_d'agneau_à_la_poêle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir paré le gigot d'agneau d'une pommade faite avec de l'ail écrasé et du sel, il est mis à cuire pendant une heure. Ensuite, il est mis à mariner avec un bouquet de persil, le laurier-sauce, le paprika, le poivre, les clous de girofle, la sauce tomate, le vinaigre, le vin blanc, l'huile d'olive, le saindoux et mouillé d'un décilitre d'eau[1].
-L'ensemble reste dans cette marinade pendant deux à trois heures puis est placé dans une poêle couverte et mit à cuire à feu doux. Quand la marinade est réduite, il y est ajouté des pommes de terre coupées en quartiers. Ce mets s'accompagne d'une salade de tomates, poivrons, concombres et d'oignons, assaisonnée d'huile d'olive, salée et vinaigrée[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir paré le gigot d'agneau d'une pommade faite avec de l'ail écrasé et du sel, il est mis à cuire pendant une heure. Ensuite, il est mis à mariner avec un bouquet de persil, le laurier-sauce, le paprika, le poivre, les clous de girofle, la sauce tomate, le vinaigre, le vin blanc, l'huile d'olive, le saindoux et mouillé d'un décilitre d'eau.
+L'ensemble reste dans cette marinade pendant deux à trois heures puis est placé dans une poêle couverte et mit à cuire à feu doux. Quand la marinade est réduite, il y est ajouté des pommes de terre coupées en quartiers. Ce mets s'accompagne d'une salade de tomates, poivrons, concombres et d'oignons, assaisonnée d'huile d'olive, salée et vinaigrée.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gigot_d%27agneau_%C3%A0_la_po%C3%AAle</t>
+          <t>Gigot_d'agneau_à_la_poêle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Accord mets/vin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce mets s'accorde avec des vins de l'Algarve comme le Lagos, le Portimão, le Lagoa ou le Tavira.
 </t>
